--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>3.59</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.68</v>
+        <v>4.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.51</v>
+        <v>2.74</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.92</v>
+        <v>2.68</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.67</v>
+        <v>3.27</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.42</v>
+        <v>2.6</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.07</v>
+        <v>3.08</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3609,30 +3609,30 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.59</v>
+        <v>1.51</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>4.82</v>
+        <v>1.92</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,11 +3640,11 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.09</v>
+        <v>5.42</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.78</v>
+        <v>4.07</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,32 +4292,32 @@
         </is>
       </c>
       <c r="P42" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>17/09/2023 14:31</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>17/09/2023 14:58</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.59</v>
-      </c>
       <c r="S42" t="inlineStr">
         <is>
           <t>28/08/2023 16:01</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.34</v>
+        <v>2.44</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.98</v>
+        <v>3.38</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>5.01</v>
+        <v>3.59</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.96</v>
+        <v>4.34</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>2.03</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.8</v>
+        <v>5.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>3.96</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4686,6 +4686,98 @@
       <c r="V46" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/lyon-le-havre/4lHuuOm6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45191.875</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/monaco-nice/ImqztTyg/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.27</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:53</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:58</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.37</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 15:00</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
+        <v>2.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.06</v>
+        <v>1.73</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:53</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.53</v>
+        <v>3.82</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>13/08/2023 14:58</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>3.12</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>5.41</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>13/08/2023 15:00</t>
+          <t>13/08/2023 14:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-monaco/tWXTFORN/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>3.09</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.41</v>
+        <v>2.43</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:57</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-le-havre/x8rvY5sh/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-toulouse/A1jhA2ko/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>27/08/2023 14:57</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.81</v>
+        <v>3.48</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>27/08/2023 14:59</t>
+          <t>27/08/2023 15:00</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.31</v>
+        <v>2.91</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.62</v>
+        <v>3.23</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,48 +2804,48 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>27/08/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>27/08/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>27/08/2023 15:00</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:00</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-reims/tfrhVnKs/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-toulouse/bVxcU6Zm/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.59</v>
+        <v>2.74</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.82</v>
+        <v>2.68</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:48</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.92</v>
+        <v>3.09</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28/08/2023 05:44</t>
+          <t>24/08/2023 07:58</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>3.08</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.74</v>
+        <v>1.51</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:48</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.27</v>
+        <v>4.67</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.09</v>
+        <v>3.92</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:59</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.6</v>
+        <v>5.42</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>24/08/2023 07:58</t>
+          <t>20/08/2023 09:02</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.08</v>
+        <v>4.07</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/09/2023 14:56</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-lorient/rJv9R4J6/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
         </is>
       </c>
     </row>
@@ -3609,30 +3609,30 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.51</v>
+        <v>3.59</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.92</v>
+        <v>4.82</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,11 +3640,11 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3656,15 +3656,15 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>5.42</v>
+        <v>2.09</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>20/08/2023 09:02</t>
+          <t>28/08/2023 05:44</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.07</v>
+        <v>1.78</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/lille-montpellier/4YSHPrlJ/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-reims/xMcWr6ls/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.1</v>
+        <v>1.88</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:31</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.44</v>
+        <v>4.34</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 14:57</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>1.71</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.38</v>
+        <v>3.98</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.59</v>
+        <v>5.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.34</v>
+        <v>3.96</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 14:58</t>
+          <t>17/09/2023 14:53</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/clermont-nantes/Ox0rt4Ya/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.71</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:50</t>
+          <t>17/09/2023 14:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:31</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>5.01</v>
+        <v>3.8</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.96</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 14:53</t>
+          <t>17/09/2023 14:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/ligue-1/reims-brest/pn1vspJg/</t>
+          <t>https://www.betexplorer.com/football/france/ligue-1/strasbourg-montpellier/fJq2dPIt/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,650 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/ligue-1/monaco-nice/ImqztTyg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/nantes-lorient/8xxmwRLB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:48</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/brest-lyon/4Ence8yt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45193.54166666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:36</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:36</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:36</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/metz-strasbourg/G2uey5jO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Clermont</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:39</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:39</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>11/09/2023 13:39</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/le-havre-clermont/MutixoyI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lens-toulouse/QDnrv765/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45193.71180555555</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:49</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:01</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:01</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/montpellier-rennes/fgvazP5U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45193.86458333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>24/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/paris-sg-marseille/vcpWt9Mn/</t>
         </is>
       </c>
     </row>

--- a/2023/france_ligue-1_2023-2024.xlsx
+++ b/2023/france_ligue-1_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5425,6 +5425,98 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ligue-1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45195.875</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/ligue-1/lille-reims/nNmvumia/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
